--- a/dataFiles/signup/Signup-withReject.xlsx
+++ b/dataFiles/signup/Signup-withReject.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="TC_01" sheetId="5" r:id="rId1"/>
+    <sheet sheetId="5" name="TC_01" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="106">
   <si>
     <t>Test ID</t>
   </si>
@@ -106,16 +106,16 @@
     <t>prabhaAuto</t>
   </si>
   <si>
-    <t>prabhaAutocuBf6328@mailinator.com</t>
+    <t>prabhaAutoNwdV2447@mailinator.com</t>
   </si>
   <si>
     <t>Prabha@123</t>
   </si>
   <si>
-    <t>PrabhaAutoAEUD</t>
-  </si>
-  <si>
-    <t>automationybnv</t>
+    <t>PrabhaAutoHVvk</t>
+  </si>
+  <si>
+    <t>automationslnp</t>
   </si>
   <si>
     <t>2505551234</t>
@@ -154,16 +154,13 @@
     <t>To verify the employee selection for the 'Union Representative' cancer program."</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>prabhaAutogpNs7948@mailinator.com</t>
-  </si>
-  <si>
-    <t>PrabhaAutoepzV</t>
-  </si>
-  <si>
-    <t>automationlxwb</t>
+    <t>prabhaAutoSJaW7324@mailinator.com</t>
+  </si>
+  <si>
+    <t>PrabhaAutocbph</t>
+  </si>
+  <si>
+    <t>automationleyu</t>
   </si>
   <si>
     <t>Union Representative</t>
@@ -178,13 +175,13 @@
     <t>To verify the employee's selection for the 'Flyer/Handout' Chronic program."</t>
   </si>
   <si>
-    <t>prabhaAutoDscZ7881@mailinator.com</t>
-  </si>
-  <si>
-    <t>PrabhaAutoKKqs</t>
-  </si>
-  <si>
-    <t>automationvxer</t>
+    <t>prabhaAutoYvQs8369@mailinator.com</t>
+  </si>
+  <si>
+    <t>PrabhaAutolSlG</t>
+  </si>
+  <si>
+    <t>automationcjyd</t>
   </si>
   <si>
     <t>Flyer/Handout</t>
@@ -199,13 +196,13 @@
     <t>To verify the employee's selection for the 'Lunch and Learnt' elder care program."</t>
   </si>
   <si>
-    <t>prabhaAutonsIA4972@mailinator.com</t>
-  </si>
-  <si>
-    <t>PrabhaAutoRXfS</t>
-  </si>
-  <si>
-    <t>automationaqat</t>
+    <t>prabhaAutoxVDO9329@mailinator.com</t>
+  </si>
+  <si>
+    <t>PrabhaAutoKSuT</t>
+  </si>
+  <si>
+    <t>automationqmvg</t>
   </si>
   <si>
     <t>Lunch and Learn</t>
@@ -220,6 +217,15 @@
     <t>To verify the employee's selection for the 'Radio Ad' mental health program."</t>
   </si>
   <si>
+    <t>prabhaAutoXNVl8104@mailinator.com</t>
+  </si>
+  <si>
+    <t>PrabhaAutoHlQy</t>
+  </si>
+  <si>
+    <t>automationzphi</t>
+  </si>
+  <si>
     <t>Radio Ad</t>
   </si>
   <si>
@@ -229,6 +235,15 @@
     <t>To verify the employee's selection for the 'Online' mental health program."</t>
   </si>
   <si>
+    <t>prabhaAutoRhip2707@mailinator.com</t>
+  </si>
+  <si>
+    <t>PrabhaAutoBqbo</t>
+  </si>
+  <si>
+    <t>automationpqky</t>
+  </si>
+  <si>
     <t>Online</t>
   </si>
   <si>
@@ -238,6 +253,15 @@
     <t>To verify the employee's selection for the 'Friend/Co-Worker' mental health program."</t>
   </si>
   <si>
+    <t>prabhaAutoFWex7817@mailinator.com</t>
+  </si>
+  <si>
+    <t>PrabhaAutoByAe</t>
+  </si>
+  <si>
+    <t>automationawsf</t>
+  </si>
+  <si>
     <t>Friend/Co-Worker</t>
   </si>
   <si>
@@ -247,6 +271,15 @@
     <t>To verify the employee's selection for the 'Occupational Health' mental health program."</t>
   </si>
   <si>
+    <t>prabhaAutoGNPP2447@mailinator.com</t>
+  </si>
+  <si>
+    <t>PrabhaAutoFzpM</t>
+  </si>
+  <si>
+    <t>automationjjkm</t>
+  </si>
+  <si>
     <t>Occupational Health</t>
   </si>
   <si>
@@ -256,6 +289,15 @@
     <t>To verify the employee's selection for the 'Insurance' mental health program."</t>
   </si>
   <si>
+    <t>prabhaAutorvMO7437@mailinator.com</t>
+  </si>
+  <si>
+    <t>PrabhaAutoesSO</t>
+  </si>
+  <si>
+    <t>automationyozb</t>
+  </si>
+  <si>
     <t>Insurance</t>
   </si>
   <si>
@@ -265,13 +307,28 @@
     <t>To verify the employee's selection for the 'other' mental health program."</t>
   </si>
   <si>
-    <t>other</t>
+    <t>prabhaAutoQIlX2354@mailinator.com</t>
+  </si>
+  <si>
+    <t>PrabhaAutoBjrd</t>
+  </si>
+  <si>
+    <t>automationkckx</t>
   </si>
   <si>
     <t>SignUp_Positive_11</t>
   </si>
   <si>
     <t>To verify the employee's selection for the 'Benefits Book' mental health program."</t>
+  </si>
+  <si>
+    <t>prabhaAutoKJkf7391@mailinator.com</t>
+  </si>
+  <si>
+    <t>PrabhaAutobtTQ</t>
+  </si>
+  <si>
+    <t>automationcvtt</t>
   </si>
   <si>
     <t>Benefits Book</t>
@@ -283,34 +340,34 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="12"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="12"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="4">
@@ -322,13 +379,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.5999938962981048"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor theme="5" tint="0.3999755851924192"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,15 +715,15 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.42578125" customWidth="1"/>
     <col min="2" max="2" width="30.85546875" customWidth="1"/>
@@ -691,7 +748,7 @@
     <col min="22" max="22" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="15.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -759,7 +816,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" ht="60" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>22</v>
       </c>
@@ -827,7 +884,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" ht="60" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>44</v>
       </c>
@@ -835,7 +892,7 @@
         <v>45</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>25</v>
@@ -853,16 +910,16 @@
         <v>29</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>31</v>
       </c>
       <c r="K3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>49</v>
       </c>
       <c r="M3" s="5" t="s">
         <v>34</v>
@@ -871,7 +928,7 @@
         <v>35</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P3" s="6" t="s">
         <v>37</v>
@@ -889,19 +946,19 @@
         <v>41</v>
       </c>
       <c r="U3" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="V3" s="6"/>
     </row>
-    <row r="4" spans="1:22" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" ht="60" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>53</v>
-      </c>
       <c r="C4" s="4" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>25</v>
@@ -919,16 +976,16 @@
         <v>29</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>31</v>
       </c>
       <c r="K4" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="L4" s="6" t="s">
         <v>55</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>56</v>
       </c>
       <c r="M4" s="5" t="s">
         <v>34</v>
@@ -937,7 +994,7 @@
         <v>35</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P4" s="6" t="s">
         <v>37</v>
@@ -955,19 +1012,19 @@
         <v>41</v>
       </c>
       <c r="U4" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V4" s="6"/>
     </row>
-    <row r="5" spans="1:22" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" ht="60" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>60</v>
-      </c>
       <c r="C5" s="4" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>25</v>
@@ -985,16 +1042,16 @@
         <v>29</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>31</v>
       </c>
       <c r="K5" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="L5" s="6" t="s">
         <v>62</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>63</v>
       </c>
       <c r="M5" s="5" t="s">
         <v>34</v>
@@ -1003,7 +1060,7 @@
         <v>35</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P5" s="6" t="s">
         <v>37</v>
@@ -1021,19 +1078,19 @@
         <v>41</v>
       </c>
       <c r="U5" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="V5" s="6"/>
     </row>
-    <row r="6" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" ht="45" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="C6" s="4" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>25</v>
@@ -1050,12 +1107,18 @@
       <c r="H6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="6"/>
+      <c r="I6" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="J6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
+      <c r="K6" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>69</v>
+      </c>
       <c r="M6" s="5" t="s">
         <v>34</v>
       </c>
@@ -1063,7 +1126,7 @@
         <v>35</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P6" s="6" t="s">
         <v>37</v>
@@ -1085,15 +1148,15 @@
       </c>
       <c r="V6" s="6"/>
     </row>
-    <row r="7" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" ht="45" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>25</v>
@@ -1110,12 +1173,18 @@
       <c r="H7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="6"/>
+      <c r="I7" s="6" t="s">
+        <v>73</v>
+      </c>
       <c r="J7" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
+      <c r="K7" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>75</v>
+      </c>
       <c r="M7" s="5" t="s">
         <v>34</v>
       </c>
@@ -1123,7 +1192,7 @@
         <v>35</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="P7" s="6" t="s">
         <v>37</v>
@@ -1141,19 +1210,19 @@
         <v>41</v>
       </c>
       <c r="U7" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="V7" s="6"/>
     </row>
-    <row r="8" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" ht="45" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>25</v>
@@ -1170,12 +1239,18 @@
       <c r="H8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="6"/>
+      <c r="I8" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="J8" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
+      <c r="K8" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>81</v>
+      </c>
       <c r="M8" s="5" t="s">
         <v>34</v>
       </c>
@@ -1183,7 +1258,7 @@
         <v>35</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="P8" s="6" t="s">
         <v>37</v>
@@ -1201,19 +1276,19 @@
         <v>41</v>
       </c>
       <c r="U8" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="V8" s="6"/>
     </row>
-    <row r="9" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" ht="45" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>25</v>
@@ -1230,12 +1305,18 @@
       <c r="H9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="6"/>
+      <c r="I9" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="J9" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
+      <c r="K9" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="M9" s="5" t="s">
         <v>34</v>
       </c>
@@ -1243,7 +1324,7 @@
         <v>35</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="P9" s="6" t="s">
         <v>37</v>
@@ -1261,19 +1342,19 @@
         <v>41</v>
       </c>
       <c r="U9" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="V9" s="6"/>
     </row>
-    <row r="10" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" ht="45" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>25</v>
@@ -1290,12 +1371,18 @@
       <c r="H10" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="6"/>
+      <c r="I10" s="6" t="s">
+        <v>91</v>
+      </c>
       <c r="J10" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
+      <c r="K10" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>93</v>
+      </c>
       <c r="M10" s="5" t="s">
         <v>34</v>
       </c>
@@ -1303,7 +1390,7 @@
         <v>35</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="P10" s="6" t="s">
         <v>37</v>
@@ -1321,19 +1408,19 @@
         <v>41</v>
       </c>
       <c r="U10" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="V10" s="6"/>
     </row>
-    <row r="11" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" ht="45" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>25</v>
@@ -1350,12 +1437,18 @@
       <c r="H11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="6"/>
+      <c r="I11" s="6" t="s">
+        <v>97</v>
+      </c>
       <c r="J11" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
+      <c r="K11" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>99</v>
+      </c>
       <c r="M11" s="5" t="s">
         <v>34</v>
       </c>
@@ -1363,7 +1456,7 @@
         <v>35</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="P11" s="6" t="s">
         <v>37</v>
@@ -1381,19 +1474,19 @@
         <v>41</v>
       </c>
       <c r="U11" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="V11" s="6"/>
     </row>
-    <row r="12" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" ht="45" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>25</v>
@@ -1410,12 +1503,18 @@
       <c r="H12" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="6"/>
+      <c r="I12" s="6" t="s">
+        <v>102</v>
+      </c>
       <c r="J12" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
+      <c r="K12" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>104</v>
+      </c>
       <c r="M12" s="5" t="s">
         <v>34</v>
       </c>
@@ -1423,7 +1522,7 @@
         <v>35</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="P12" s="6" t="s">
         <v>37</v>
@@ -1441,7 +1540,7 @@
         <v>41</v>
       </c>
       <c r="U12" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="V12" s="6"/>
     </row>
@@ -1473,6 +1572,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>